--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -58,24 +58,6 @@
   </si>
   <si>
     <t>CREAM CUPID HEARTS COAT HANGER</t>
-  </si>
-  <si>
-    <t>84029G</t>
-  </si>
-  <si>
-    <t>KNITTED UNION FLAG HOT WATER BOTTLE</t>
-  </si>
-  <si>
-    <t>84029E</t>
-  </si>
-  <si>
-    <t>RED WOOLLY HOTTIE WHITE HEART.</t>
-  </si>
-  <si>
-    <t>SET 7 BABUSHKA NESTING BOXES</t>
-  </si>
-  <si>
-    <t>GLASS STAR FROSTED T-LIGHT HOLDER</t>
   </si>
   <si>
     <t>HAND WARMER UNION JACK</t>
@@ -457,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -581,22 +563,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>536365</v>
-      </c>
-      <c r="B5" t="s">
+        <v>536366</v>
+      </c>
+      <c r="B5">
+        <v>22633</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>40513.351388888892</v>
+        <v>40513.352777777778</v>
       </c>
       <c r="F5">
-        <v>3.39</v>
+        <v>1.85</v>
       </c>
       <c r="G5">
         <v>17850</v>
@@ -607,22 +589,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>536365</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
+        <v>536366</v>
+      </c>
+      <c r="B6">
+        <v>22632</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>40513.351388888892</v>
+        <v>40513.352777777778</v>
       </c>
       <c r="F6">
-        <v>3.39</v>
+        <v>1.85</v>
       </c>
       <c r="G6">
         <v>17850</v>
@@ -633,185 +615,121 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>536365</v>
+        <v>536367</v>
       </c>
       <c r="B7">
-        <v>22752</v>
+        <v>84879</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
-        <v>40513.351388888892</v>
+        <v>40513.356944444444</v>
       </c>
       <c r="F7">
-        <v>7.65</v>
+        <v>1.69</v>
       </c>
       <c r="G7">
-        <v>17850</v>
+        <v>13047</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>536365</v>
-      </c>
-      <c r="B8">
-        <v>21730</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>536367</v>
+      </c>
+      <c r="B8" s="2">
+        <v>22745</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="1">
-        <v>40513.351388888892</v>
-      </c>
-      <c r="F8">
-        <v>4.25</v>
-      </c>
-      <c r="G8">
-        <v>17850</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="E8" s="4">
+        <v>40513.356944444444</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>13047</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>536366</v>
-      </c>
-      <c r="B9">
-        <v>22633</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>536367</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22748</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
-        <v>40513.352777777778</v>
-      </c>
-      <c r="F9">
-        <v>1.85</v>
-      </c>
-      <c r="G9">
-        <v>17850</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E9" s="4">
+        <v>40513.356944444444</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>13047</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>536366</v>
-      </c>
-      <c r="B10">
-        <v>22632</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>40513.352777777778</v>
-      </c>
-      <c r="F10">
-        <v>1.85</v>
-      </c>
-      <c r="G10">
-        <v>17850</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>536367</v>
-      </c>
-      <c r="B11">
-        <v>84879</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1">
-        <v>40513.356944444444</v>
-      </c>
-      <c r="F11">
-        <v>1.69</v>
-      </c>
-      <c r="G11">
-        <v>13047</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>536367</v>
-      </c>
-      <c r="B12" s="2">
-        <v>22745</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4">
-        <v>40513.356944444444</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>13047</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>536367</v>
-      </c>
-      <c r="B13" s="2">
-        <v>22748</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>40513.356944444444</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>13047</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -1123,45 +1041,17 @@
       <c r="G44" s="5"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="3"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E49" s="1"/>
@@ -1306,18 +1196,6 @@
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>POPPY'S PLAYHOUSE KITCHEN</t>
+  </si>
+  <si>
+    <t>ALARM CLOCK BAKELIKE PINK</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALARM CLOCK BAKELIKE RED </t>
   </si>
 </sst>
 </file>
@@ -442,7 +451,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -692,24 +701,56 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="2">
+        <v>536370</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22728</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4">
+        <v>40513.364583333336</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12583</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="2">
+        <v>536370</v>
+      </c>
+      <c r="B11" s="2">
+        <v>22728</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4">
+        <v>40513.364583333336</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="G11" s="5">
+        <v>12583</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -451,7 +451,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -753,14 +753,30 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="2">
+        <v>536371</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40513.351388888892</v>
+      </c>
+      <c r="F12">
+        <v>2.75</v>
+      </c>
+      <c r="G12" s="5">
+        <v>12583</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -51,9 +51,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>WHITE METAL LANTERN</t>
-  </si>
-  <si>
     <t>84406B</t>
   </si>
   <si>
@@ -67,12 +64,6 @@
   </si>
   <si>
     <t>ASSORTED COLOUR BIRD ORNAMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POPPY'S PLAYHOUSE BEDROOM </t>
-  </si>
-  <si>
-    <t>POPPY'S PLAYHOUSE KITCHEN</t>
   </si>
   <si>
     <t>ALARM CLOCK BAKELIKE PINK</t>
@@ -448,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -522,20 +513,20 @@
       <c r="A3">
         <v>536365</v>
       </c>
-      <c r="B3">
-        <v>71053</v>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>40513.351388888892</v>
       </c>
       <c r="F3">
-        <v>3.39</v>
+        <v>2.75</v>
       </c>
       <c r="G3">
         <v>17850</v>
@@ -546,22 +537,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>536365</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>536366</v>
+      </c>
+      <c r="B4">
+        <v>22633</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>40513.351388888892</v>
+        <v>40513.352777777778</v>
       </c>
       <c r="F4">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="G4">
         <v>17850</v>
@@ -575,7 +566,7 @@
         <v>536366</v>
       </c>
       <c r="B5">
-        <v>22633</v>
+        <v>22632</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -598,185 +589,137 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>536366</v>
+        <v>536367</v>
       </c>
       <c r="B6">
-        <v>22632</v>
+        <v>84879</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1">
-        <v>40513.352777777778</v>
+        <v>40513.356944444444</v>
       </c>
       <c r="F6">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="G6">
-        <v>17850</v>
+        <v>13047</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>536367</v>
-      </c>
-      <c r="B7">
-        <v>84879</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>536370</v>
+      </c>
+      <c r="B7" s="2">
+        <v>22728</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1">
-        <v>40513.356944444444</v>
-      </c>
-      <c r="F7">
-        <v>1.69</v>
-      </c>
-      <c r="G7">
-        <v>13047</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
+      <c r="D7" s="3">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4">
+        <v>40513.364583333336</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12583</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>536367</v>
+        <v>536370</v>
       </c>
       <c r="B8" s="2">
-        <v>22745</v>
+        <v>22728</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4">
+        <v>40513.364583333336</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="G8" s="5">
+        <v>12583</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4">
-        <v>40513.356944444444</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>13047</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>536367</v>
-      </c>
-      <c r="B9" s="2">
-        <v>22748</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4">
-        <v>40513.356944444444</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2.1</v>
+        <v>536371</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40513.351388888892</v>
+      </c>
+      <c r="F9">
+        <v>2.75</v>
       </c>
       <c r="G9" s="5">
-        <v>13047</v>
+        <v>12583</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>536370</v>
-      </c>
-      <c r="B10" s="2">
-        <v>22728</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4">
-        <v>40513.364583333336</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="G10" s="5">
-        <v>12583</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>536370</v>
-      </c>
-      <c r="B11" s="2">
-        <v>22728</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4">
-        <v>40513.364583333336</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="G11" s="5">
-        <v>12583</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>536371</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>40513.351388888892</v>
-      </c>
-      <c r="F12">
-        <v>2.75</v>
-      </c>
-      <c r="G12" s="5">
-        <v>12583</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1068,35 +1011,14 @@
       <c r="G41" s="5"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="3"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E45" s="1"/>
@@ -1244,15 +1166,6 @@
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E96" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -42,18 +42,12 @@
     <t>Country</t>
   </si>
   <si>
-    <t>85123A</t>
-  </si>
-  <si>
     <t>WHITE HANGING HEART T-LIGHT HOLDER</t>
   </si>
   <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>84406B</t>
-  </si>
-  <si>
     <t>CREAM CUPID HEARTS COAT HANGER</t>
   </si>
   <si>
@@ -73,6 +67,62 @@
   </si>
   <si>
     <t xml:space="preserve">ALARM CLOCK BAKELIKE RED </t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -123,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,6 +187,15 @@
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +501,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -484,14 +543,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>536365</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -502,22 +561,22 @@
       <c r="F2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G2">
-        <v>17850</v>
+      <c r="G2" t="s">
+        <v>18</v>
       </c>
       <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>536365</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -528,22 +587,22 @@
       <c r="F3">
         <v>2.75</v>
       </c>
-      <c r="G3">
-        <v>17850</v>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>536366</v>
-      </c>
-      <c r="B4">
-        <v>22633</v>
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -554,22 +613,22 @@
       <c r="F4">
         <v>1.85</v>
       </c>
-      <c r="G4">
-        <v>17850</v>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>536366</v>
-      </c>
-      <c r="B5">
-        <v>22632</v>
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -580,22 +639,22 @@
       <c r="F5">
         <v>1.85</v>
       </c>
-      <c r="G5">
-        <v>17850</v>
+      <c r="G5" t="s">
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>536367</v>
-      </c>
-      <c r="B6">
-        <v>84879</v>
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>32</v>
@@ -606,22 +665,22 @@
       <c r="F6">
         <v>1.69</v>
       </c>
-      <c r="G6">
-        <v>13047</v>
+      <c r="G6" t="s">
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>536370</v>
-      </c>
-      <c r="B7" s="2">
-        <v>22728</v>
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3">
         <v>24</v>
@@ -632,22 +691,22 @@
       <c r="F7" s="3">
         <v>3.75</v>
       </c>
-      <c r="G7" s="5">
-        <v>12583</v>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>536370</v>
-      </c>
-      <c r="B8" s="2">
-        <v>22728</v>
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3">
         <v>24</v>
@@ -658,22 +717,22 @@
       <c r="F8" s="3">
         <v>3.75</v>
       </c>
-      <c r="G8" s="5">
-        <v>12583</v>
+      <c r="G8" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>536371</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -684,11 +743,11 @@
       <c r="F9">
         <v>2.75</v>
       </c>
-      <c r="G9" s="5">
-        <v>12583</v>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +114,10 @@
   </si>
   <si>
     <t>D40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +497,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -547,7 +543,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -573,7 +569,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -599,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -614,7 +610,7 @@
         <v>1.85</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -625,7 +621,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -640,7 +636,7 @@
         <v>1.85</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -651,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -666,7 +662,7 @@
         <v>1.69</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -677,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -692,7 +688,7 @@
         <v>3.75</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>15</v>
@@ -703,7 +699,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -718,7 +714,7 @@
         <v>3.75</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>15</v>
@@ -726,7 +722,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6">
         <v>50</v>
@@ -743,8 +739,8 @@
       <c r="F9">
         <v>2.75</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
+      <c r="G9" t="s">
+        <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>15</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -117,7 +117,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
+    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +497,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -117,7 +117,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E</t>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +497,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
